--- a/utils/sample_data.xlsx
+++ b/utils/sample_data.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noble\Documents\STANES\Project Files\Family-Tree\utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fam-tree\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A09142-59E9-459C-B7A0-A9BB4F28280A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8B12913C-6F7E-479F-91B7-E60F869EFEEA}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>Images</t>
   </si>
@@ -184,16 +183,25 @@
   </si>
   <si>
     <t>Silvy</t>
+  </si>
+  <si>
+    <t>http://res.cloudinary.com/basajja/image/upload/IMG_3457</t>
+  </si>
+  <si>
+    <t>http://res.cloudinary.com/basajja/image/upload/IMG_3475</t>
+  </si>
+  <si>
+    <t>http://res.cloudinary.com/basajja/image/upload/IMG_3494</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +233,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -436,7 +452,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -446,6 +462,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -506,9 +523,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -533,9 +547,6 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -680,8 +691,14 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="3" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="3" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
     <cellStyle name="20% - Accent3" xfId="4" builtinId="38"/>
     <cellStyle name="40% - Accent2" xfId="2" builtinId="35"/>
     <cellStyle name="40% - Accent3" xfId="5" builtinId="39"/>
@@ -690,6 +707,7 @@
     <cellStyle name="40% - Accent6" xfId="8" builtinId="51"/>
     <cellStyle name="60% - Accent1" xfId="1" builtinId="32"/>
     <cellStyle name="60% - Accent2" xfId="3" builtinId="36"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1021,107 +1039,107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44C3F0E-8BBD-47EE-9396-E4FE2A458BD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="128" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="26" customWidth="1"/>
-    <col min="10" max="10" width="6" style="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" style="26" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.44140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6" style="26" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16" style="26" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6" style="26" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16" style="26" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6" style="26" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16" style="26" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="6.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="15.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="5" style="26" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="7.5546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="14.44140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="7.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="5" style="26" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="7.5546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="9.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="14.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="13.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="14.44140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="7.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="5" style="26" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="7.5546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="9.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="14.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="13.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="14.44140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="7.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="5" style="26" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="7.5546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="9.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="13.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="14.44140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="7.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="5" style="26" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="7.5546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="9.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="14.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="13.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="14.44140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="7.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="5" style="26" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="7.5546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="9.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="14.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="13.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="14.44140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="7.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="89" max="16384" width="11.44140625" style="26"/>
+    <col min="1" max="1" width="15.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="6" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.125" style="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6" style="25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.125" style="25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" style="25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.125" style="25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6" style="25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16" style="25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.125" style="25" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6" style="25" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16" style="25" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.125" style="25" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.125" style="25" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.125" style="25" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="6.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.125" style="25" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.125" style="25" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="5" style="25" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="7.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="14.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="7.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="5" style="25" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="7.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="9.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="14.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="14.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="7.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="5" style="25" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="7.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="9.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="14.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="13.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="14.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="7.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="5" style="25" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="7.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="9.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="14.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="13.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="14.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="7.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="5" style="25" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="7.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="9.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="14.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="13.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="14.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="7.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="5" style="25" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="7.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="9.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="14.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="13.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="14.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="7.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="89" max="16384" width="11.5" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:88" s="19" customFormat="1" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1277,1088 +1295,1099 @@
       <c r="CI1" s="18"/>
       <c r="CJ1" s="18"/>
     </row>
-    <row r="2" spans="1:88" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="1:88" ht="30">
+      <c r="A2" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="20">
         <v>1</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="22">
         <v>23</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="24">
+      <c r="I2" s="23">
         <v>123456789</v>
       </c>
-      <c r="J2" s="21">
+      <c r="J2" s="20">
         <v>2</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="23">
+      <c r="M2" s="22">
         <v>12</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="25">
+      <c r="O2" s="24">
         <v>123456789</v>
       </c>
-      <c r="P2" s="21">
+      <c r="P2" s="20">
         <v>3</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="Q2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="R2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="23">
+      <c r="S2" s="22">
         <v>36892</v>
       </c>
-      <c r="T2" s="21" t="s">
+      <c r="T2" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="25">
+      <c r="U2" s="24">
         <v>256325632</v>
       </c>
-      <c r="V2" s="21">
+      <c r="V2" s="20">
         <v>4</v>
       </c>
-      <c r="W2" s="21" t="s">
+      <c r="W2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="X2" s="21" t="s">
+      <c r="X2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="Y2" s="23">
+      <c r="Y2" s="22">
         <v>37257</v>
       </c>
-      <c r="Z2" s="21" t="s">
+      <c r="Z2" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="25">
+      <c r="AA2" s="24">
         <v>145214521</v>
       </c>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="25"/>
-      <c r="AJ2" s="27"/>
-      <c r="AM2" s="28"/>
-    </row>
-    <row r="3" spans="1:88" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30" t="s">
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="24"/>
+      <c r="AJ2" s="26"/>
+      <c r="AM2" s="27"/>
+    </row>
+    <row r="3" spans="1:88">
+      <c r="A3" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="30">
+      <c r="C3" s="29"/>
+      <c r="D3" s="28">
         <v>1</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="30">
         <v>36892</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="31">
         <v>256325632</v>
       </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="34"/>
-      <c r="AM3" s="28"/>
-    </row>
-    <row r="4" spans="1:88" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="50"/>
-      <c r="Z4" s="49"/>
-      <c r="AA4" s="51"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="52"/>
-      <c r="AD4" s="52"/>
-      <c r="AE4" s="53"/>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="54"/>
-      <c r="AM4" s="28"/>
-    </row>
-    <row r="5" spans="1:88" x14ac:dyDescent="0.3">
-      <c r="A5" s="56"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="57"/>
-      <c r="Y5" s="57"/>
-      <c r="Z5" s="57"/>
-      <c r="AA5" s="60"/>
-      <c r="AB5" s="57"/>
-      <c r="AC5" s="57"/>
-      <c r="AD5" s="57"/>
-      <c r="AE5" s="57"/>
-      <c r="AF5" s="57"/>
-      <c r="AG5" s="61"/>
-      <c r="AM5" s="28"/>
-    </row>
-    <row r="6" spans="1:88" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
-      <c r="B6" s="31" t="s">
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="28"/>
+      <c r="AG3" s="32"/>
+      <c r="AM3" s="27"/>
+    </row>
+    <row r="4" spans="1:88">
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="52"/>
+      <c r="AM4" s="27"/>
+    </row>
+    <row r="5" spans="1:88">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="55"/>
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="55"/>
+      <c r="AD5" s="55"/>
+      <c r="AE5" s="55"/>
+      <c r="AF5" s="55"/>
+      <c r="AG5" s="59"/>
+      <c r="AM5" s="27"/>
+    </row>
+    <row r="6" spans="1:88">
+      <c r="A6" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="30">
+      <c r="C6" s="29"/>
+      <c r="D6" s="28">
         <v>1</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="32">
+      <c r="F6" s="28"/>
+      <c r="G6" s="30">
         <v>37257</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="31">
         <v>145214521</v>
       </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="32"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="34"/>
-      <c r="AM6" s="28"/>
-    </row>
-    <row r="7" spans="1:88" x14ac:dyDescent="0.3">
-      <c r="A7" s="62"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="50"/>
-      <c r="Y7" s="50"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="51"/>
-      <c r="AB7" s="52"/>
-      <c r="AC7" s="52"/>
-      <c r="AD7" s="52"/>
-      <c r="AE7" s="53"/>
-      <c r="AF7" s="52"/>
-      <c r="AG7" s="54"/>
-      <c r="AM7" s="28"/>
-    </row>
-    <row r="8" spans="1:88" x14ac:dyDescent="0.3">
-      <c r="A8" s="63"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="68"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="64"/>
-      <c r="Y8" s="66"/>
-      <c r="Z8" s="64"/>
-      <c r="AA8" s="68"/>
-      <c r="AB8" s="64"/>
-      <c r="AC8" s="64"/>
-      <c r="AD8" s="66"/>
-      <c r="AE8" s="66"/>
-      <c r="AF8" s="64"/>
-      <c r="AG8" s="69"/>
-      <c r="AM8" s="28"/>
-    </row>
-    <row r="9" spans="1:88" x14ac:dyDescent="0.3">
-      <c r="I9" s="70"/>
-      <c r="O9" s="28"/>
-      <c r="R9" s="27"/>
-      <c r="U9" s="28"/>
-      <c r="X9" s="27"/>
-      <c r="AA9" s="28"/>
-      <c r="AG9" s="28"/>
-      <c r="AK9" s="27"/>
-      <c r="AL9" s="27"/>
-      <c r="AM9" s="28"/>
-    </row>
-    <row r="10" spans="1:88" s="71" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="72"/>
-      <c r="I10" s="73"/>
-      <c r="M10" s="72"/>
-      <c r="O10" s="74"/>
-      <c r="S10" s="72"/>
-      <c r="U10" s="74"/>
-      <c r="Y10" s="72"/>
-      <c r="AA10" s="74"/>
-      <c r="AE10" s="72"/>
-      <c r="AG10" s="74"/>
-      <c r="AM10" s="74"/>
-    </row>
-    <row r="11" spans="1:88" x14ac:dyDescent="0.3">
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="74"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="O11" s="28"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="U11" s="28"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="27"/>
-      <c r="AA11" s="28"/>
-      <c r="AD11" s="27"/>
-      <c r="AE11" s="27"/>
-      <c r="AG11" s="28"/>
-      <c r="AM11" s="28"/>
-    </row>
-    <row r="12" spans="1:88" x14ac:dyDescent="0.3">
-      <c r="C12" s="71"/>
-      <c r="G12" s="27"/>
-      <c r="I12" s="70"/>
-      <c r="K12" s="71"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="28"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="28"/>
-      <c r="Y12" s="27"/>
-      <c r="AA12" s="28"/>
-      <c r="AE12" s="27"/>
-      <c r="AG12" s="28"/>
-      <c r="AM12" s="28"/>
-    </row>
-    <row r="13" spans="1:88" x14ac:dyDescent="0.3">
-      <c r="I13" s="70"/>
-      <c r="O13" s="28"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AG13" s="28"/>
-      <c r="AM13" s="28"/>
-    </row>
-    <row r="14" spans="1:88" x14ac:dyDescent="0.3">
-      <c r="C14" s="71"/>
-      <c r="G14" s="27"/>
-      <c r="I14" s="70"/>
-      <c r="M14" s="27"/>
-      <c r="O14" s="28"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="U14" s="28"/>
-      <c r="Y14" s="27"/>
-      <c r="AA14" s="28"/>
-      <c r="AE14" s="27"/>
-      <c r="AG14" s="28"/>
-      <c r="AM14" s="28"/>
-    </row>
-    <row r="15" spans="1:88" x14ac:dyDescent="0.3">
-      <c r="C15" s="71"/>
-      <c r="G15" s="27"/>
-      <c r="I15" s="70"/>
-      <c r="M15" s="27"/>
-      <c r="O15" s="28"/>
-      <c r="S15" s="27"/>
-      <c r="U15" s="28"/>
-      <c r="Y15" s="27"/>
-      <c r="AA15" s="28"/>
-      <c r="AG15" s="28"/>
-      <c r="AM15" s="28"/>
-    </row>
-    <row r="16" spans="1:88" x14ac:dyDescent="0.3">
-      <c r="C16" s="71"/>
-      <c r="G16" s="27"/>
-      <c r="I16" s="70"/>
-      <c r="M16" s="27"/>
-      <c r="O16" s="28"/>
-      <c r="S16" s="27"/>
-      <c r="U16" s="28"/>
-      <c r="Y16" s="27"/>
-      <c r="AA16" s="28"/>
-      <c r="AG16" s="28"/>
-      <c r="AK16" s="27"/>
-      <c r="AM16" s="28"/>
-    </row>
-    <row r="17" spans="6:39" x14ac:dyDescent="0.3">
-      <c r="G17" s="27"/>
-      <c r="I17" s="70"/>
-      <c r="O17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AG17" s="28"/>
-      <c r="AM17" s="28"/>
-    </row>
-    <row r="18" spans="6:39" x14ac:dyDescent="0.3">
-      <c r="G18" s="27"/>
-      <c r="I18" s="70"/>
-      <c r="M18" s="27"/>
-      <c r="O18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AG18" s="28"/>
-      <c r="AM18" s="28"/>
-    </row>
-    <row r="19" spans="6:39" x14ac:dyDescent="0.3">
-      <c r="I19" s="70"/>
-      <c r="O19" s="28"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="U19" s="28"/>
-      <c r="Y19" s="27"/>
-      <c r="AA19" s="28"/>
-      <c r="AG19" s="28"/>
-      <c r="AM19" s="28"/>
-    </row>
-    <row r="20" spans="6:39" x14ac:dyDescent="0.3">
-      <c r="G20" s="27"/>
-      <c r="I20" s="70"/>
-      <c r="M20" s="27"/>
-      <c r="O20" s="28"/>
-      <c r="S20" s="27"/>
-      <c r="U20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AG20" s="28"/>
-      <c r="AM20" s="28"/>
-    </row>
-    <row r="21" spans="6:39" x14ac:dyDescent="0.3">
-      <c r="I21" s="70"/>
-      <c r="O21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AG21" s="28"/>
-      <c r="AM21" s="28"/>
-    </row>
-    <row r="22" spans="6:39" x14ac:dyDescent="0.3">
-      <c r="G22" s="27"/>
-      <c r="I22" s="70"/>
-      <c r="O22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="AA22" s="28"/>
-      <c r="AG22" s="28"/>
-      <c r="AM22" s="28"/>
-    </row>
-    <row r="23" spans="6:39" x14ac:dyDescent="0.3">
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="I23" s="70"/>
-      <c r="L23" s="27"/>
-      <c r="O23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="AA23" s="28"/>
-      <c r="AG23" s="28"/>
-      <c r="AM23" s="28"/>
-    </row>
-    <row r="24" spans="6:39" x14ac:dyDescent="0.3">
-      <c r="I24" s="70"/>
-      <c r="O24" s="28"/>
-      <c r="S24" s="27"/>
-      <c r="U24" s="28"/>
-      <c r="AA24" s="28"/>
-      <c r="AG24" s="28"/>
-      <c r="AM24" s="28"/>
-    </row>
-    <row r="25" spans="6:39" x14ac:dyDescent="0.3">
-      <c r="G25" s="27"/>
-      <c r="I25" s="70"/>
-      <c r="O25" s="28"/>
-      <c r="U25" s="28"/>
-      <c r="AA25" s="28"/>
-      <c r="AG25" s="28"/>
-      <c r="AM25" s="28"/>
-    </row>
-    <row r="26" spans="6:39" x14ac:dyDescent="0.3">
-      <c r="I26" s="70"/>
-      <c r="M26" s="27"/>
-      <c r="O26" s="28"/>
-      <c r="S26" s="27"/>
-      <c r="U26" s="28"/>
-      <c r="AA26" s="28"/>
-      <c r="AG26" s="28"/>
-      <c r="AM26" s="28"/>
-    </row>
-    <row r="27" spans="6:39" x14ac:dyDescent="0.3">
-      <c r="I27" s="70"/>
-      <c r="O27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="AA27" s="28"/>
-      <c r="AG27" s="28"/>
-      <c r="AK27" s="27"/>
-      <c r="AM27" s="28"/>
-    </row>
-    <row r="28" spans="6:39" x14ac:dyDescent="0.3">
-      <c r="I28" s="70"/>
-      <c r="M28" s="27"/>
-      <c r="O28" s="28"/>
-      <c r="S28" s="27"/>
-      <c r="U28" s="28"/>
-      <c r="Y28" s="27"/>
-      <c r="AA28" s="28"/>
-      <c r="AG28" s="28"/>
-      <c r="AM28" s="28"/>
-    </row>
-    <row r="29" spans="6:39" x14ac:dyDescent="0.3">
-      <c r="I29" s="70"/>
-      <c r="M29" s="27"/>
-      <c r="O29" s="28"/>
-      <c r="U29" s="28"/>
-      <c r="AA29" s="28"/>
-      <c r="AG29" s="28"/>
-      <c r="AM29" s="28"/>
-    </row>
-    <row r="30" spans="6:39" x14ac:dyDescent="0.3">
-      <c r="G30" s="27"/>
-      <c r="I30" s="70"/>
-      <c r="O30" s="28"/>
-      <c r="U30" s="28"/>
-      <c r="AA30" s="28"/>
-      <c r="AG30" s="28"/>
-      <c r="AM30" s="28"/>
-    </row>
-    <row r="31" spans="6:39" x14ac:dyDescent="0.3">
-      <c r="G31" s="27"/>
-      <c r="I31" s="70"/>
-      <c r="M31" s="27"/>
-      <c r="O31" s="28"/>
-      <c r="U31" s="28"/>
-      <c r="AA31" s="28"/>
-      <c r="AG31" s="28"/>
-      <c r="AM31" s="28"/>
-    </row>
-    <row r="32" spans="6:39" x14ac:dyDescent="0.3">
-      <c r="I32" s="70"/>
-      <c r="M32" s="27"/>
-      <c r="O32" s="28"/>
-      <c r="U32" s="28"/>
-      <c r="AA32" s="28"/>
-      <c r="AG32" s="28"/>
-      <c r="AM32" s="28"/>
-    </row>
-    <row r="33" spans="7:39" x14ac:dyDescent="0.3">
-      <c r="G33" s="27"/>
-      <c r="I33" s="70"/>
-      <c r="M33" s="27"/>
-      <c r="O33" s="28"/>
-      <c r="S33" s="27"/>
-      <c r="U33" s="28"/>
-      <c r="AA33" s="28"/>
-      <c r="AG33" s="28"/>
-      <c r="AM33" s="28"/>
-    </row>
-    <row r="34" spans="7:39" x14ac:dyDescent="0.3">
-      <c r="I34" s="70"/>
-      <c r="M34" s="27"/>
-      <c r="O34" s="28"/>
-      <c r="U34" s="28"/>
-      <c r="AA34" s="28"/>
-      <c r="AG34" s="28"/>
-      <c r="AM34" s="28"/>
-    </row>
-    <row r="35" spans="7:39" x14ac:dyDescent="0.3">
-      <c r="I35" s="70"/>
-      <c r="O35" s="28"/>
-      <c r="S35" s="27"/>
-      <c r="U35" s="28"/>
-      <c r="AA35" s="28"/>
-      <c r="AG35" s="28"/>
-      <c r="AM35" s="28"/>
-    </row>
-    <row r="36" spans="7:39" x14ac:dyDescent="0.3">
-      <c r="I36" s="70"/>
-      <c r="M36" s="27"/>
-      <c r="O36" s="28"/>
-      <c r="S36" s="27"/>
-      <c r="U36" s="28"/>
-      <c r="AA36" s="28"/>
-      <c r="AG36" s="28"/>
-      <c r="AM36" s="28"/>
-    </row>
-    <row r="37" spans="7:39" x14ac:dyDescent="0.3">
-      <c r="I37" s="70"/>
-      <c r="M37" s="27"/>
-      <c r="O37" s="28"/>
-      <c r="S37" s="27"/>
-      <c r="U37" s="28"/>
-      <c r="AA37" s="28"/>
-      <c r="AG37" s="28"/>
-      <c r="AM37" s="28"/>
-    </row>
-    <row r="38" spans="7:39" x14ac:dyDescent="0.3">
-      <c r="G38" s="27"/>
-      <c r="I38" s="70"/>
-      <c r="M38" s="27"/>
-      <c r="O38" s="28"/>
-      <c r="U38" s="28"/>
-      <c r="AA38" s="28"/>
-      <c r="AG38" s="28"/>
-      <c r="AM38" s="28"/>
-    </row>
-    <row r="39" spans="7:39" x14ac:dyDescent="0.3">
-      <c r="I39" s="70"/>
-      <c r="M39" s="27"/>
-      <c r="O39" s="28"/>
-      <c r="U39" s="28"/>
-      <c r="AA39" s="28"/>
-      <c r="AG39" s="28"/>
-      <c r="AM39" s="28"/>
-    </row>
-    <row r="40" spans="7:39" x14ac:dyDescent="0.3">
-      <c r="I40" s="70"/>
-      <c r="M40" s="27"/>
-      <c r="O40" s="28"/>
-      <c r="S40" s="27"/>
-      <c r="U40" s="28"/>
-      <c r="AA40" s="28"/>
-      <c r="AG40" s="28"/>
-      <c r="AM40" s="28"/>
-    </row>
-    <row r="41" spans="7:39" x14ac:dyDescent="0.3">
-      <c r="I41" s="70"/>
-      <c r="O41" s="28"/>
-      <c r="U41" s="28"/>
-      <c r="AA41" s="28"/>
-      <c r="AG41" s="28"/>
-      <c r="AM41" s="28"/>
-    </row>
-    <row r="42" spans="7:39" x14ac:dyDescent="0.3">
-      <c r="I42" s="70"/>
-      <c r="O42" s="28"/>
-      <c r="U42" s="28"/>
-      <c r="AA42" s="28"/>
-      <c r="AG42" s="28"/>
-      <c r="AM42" s="28"/>
-    </row>
-    <row r="43" spans="7:39" x14ac:dyDescent="0.3">
-      <c r="G43" s="27"/>
-      <c r="I43" s="70"/>
-      <c r="O43" s="28"/>
-      <c r="U43" s="28"/>
-      <c r="AA43" s="28"/>
-      <c r="AE43" s="27"/>
-      <c r="AG43" s="28"/>
-      <c r="AM43" s="28"/>
-    </row>
-    <row r="44" spans="7:39" x14ac:dyDescent="0.3">
-      <c r="I44" s="70"/>
-      <c r="M44" s="27"/>
-      <c r="O44" s="28"/>
-      <c r="S44" s="27"/>
-      <c r="U44" s="28"/>
-      <c r="AA44" s="28"/>
-      <c r="AG44" s="28"/>
-      <c r="AM44" s="28"/>
-    </row>
-    <row r="45" spans="7:39" x14ac:dyDescent="0.3">
-      <c r="I45" s="70"/>
-      <c r="O45" s="28"/>
-      <c r="S45" s="27"/>
-      <c r="U45" s="28"/>
-      <c r="Y45" s="27"/>
-      <c r="AA45" s="28"/>
-      <c r="AG45" s="28"/>
-      <c r="AM45" s="28"/>
-    </row>
-    <row r="46" spans="7:39" x14ac:dyDescent="0.3">
-      <c r="I46" s="70"/>
-      <c r="O46" s="28"/>
-      <c r="U46" s="28"/>
-      <c r="Y46" s="27"/>
-      <c r="AA46" s="28"/>
-      <c r="AG46" s="28"/>
-      <c r="AK46" s="27"/>
-      <c r="AM46" s="28"/>
-    </row>
-    <row r="47" spans="7:39" x14ac:dyDescent="0.3">
-      <c r="I47" s="70"/>
-      <c r="M47" s="27"/>
-      <c r="O47" s="28"/>
-      <c r="U47" s="28"/>
-      <c r="AA47" s="28"/>
-      <c r="AG47" s="28"/>
-      <c r="AM47" s="28"/>
-    </row>
-    <row r="48" spans="7:39" x14ac:dyDescent="0.3">
-      <c r="I48" s="70"/>
-      <c r="O48" s="28"/>
-      <c r="S48" s="27"/>
-      <c r="U48" s="28"/>
-      <c r="AA48" s="28"/>
-      <c r="AG48" s="28"/>
-      <c r="AM48" s="28"/>
-    </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="G49" s="27"/>
-      <c r="I49" s="70"/>
-      <c r="O49" s="28"/>
-      <c r="U49" s="28"/>
-      <c r="Y49" s="27"/>
-      <c r="AA49" s="28"/>
-      <c r="AG49" s="28"/>
-      <c r="AM49" s="28"/>
-    </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="I50" s="70"/>
-      <c r="M50" s="27"/>
-      <c r="O50" s="28"/>
-      <c r="U50" s="28"/>
-      <c r="AA50" s="28"/>
-      <c r="AG50" s="28"/>
-      <c r="AM50" s="28"/>
-    </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="I51" s="70"/>
-      <c r="O51" s="28"/>
-      <c r="U51" s="28"/>
-      <c r="AA51" s="28"/>
-      <c r="AG51" s="28"/>
-      <c r="AM51" s="28"/>
-    </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="I52" s="70"/>
-      <c r="O52" s="28"/>
-      <c r="U52" s="28"/>
-      <c r="AA52" s="28"/>
-      <c r="AG52" s="28"/>
-      <c r="AM52" s="28"/>
-    </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="I53" s="70"/>
-      <c r="O53" s="28"/>
-      <c r="U53" s="28"/>
-      <c r="AA53" s="28"/>
-      <c r="AG53" s="28"/>
-      <c r="AM53" s="28"/>
-    </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="I54" s="70"/>
-      <c r="O54" s="28"/>
-      <c r="U54" s="28"/>
-      <c r="AA54" s="28"/>
-      <c r="AG54" s="28"/>
-      <c r="AM54" s="28"/>
-    </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="I55" s="70"/>
-      <c r="O55" s="28"/>
-      <c r="U55" s="28"/>
-      <c r="AA55" s="28"/>
-      <c r="AG55" s="28"/>
-      <c r="AM55" s="28"/>
-    </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="I56" s="70"/>
-      <c r="O56" s="28"/>
-      <c r="U56" s="28"/>
-      <c r="AA56" s="28"/>
-      <c r="AG56" s="28"/>
-      <c r="AM56" s="28"/>
-    </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="I57" s="70"/>
-      <c r="O57" s="28"/>
-      <c r="U57" s="28"/>
-      <c r="AA57" s="28"/>
-      <c r="AG57" s="28"/>
-      <c r="AM57" s="28"/>
-    </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="I58" s="70"/>
-      <c r="O58" s="28"/>
-      <c r="U58" s="28"/>
-      <c r="AA58" s="28"/>
-      <c r="AG58" s="28"/>
-      <c r="AM58" s="28"/>
-    </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="I59" s="70"/>
-      <c r="O59" s="28"/>
-      <c r="U59" s="28"/>
-      <c r="AA59" s="28"/>
-      <c r="AG59" s="28"/>
-      <c r="AM59" s="28"/>
-    </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="I60" s="70"/>
-      <c r="O60" s="28"/>
-      <c r="U60" s="28"/>
-      <c r="AA60" s="28"/>
-      <c r="AG60" s="28"/>
-      <c r="AM60" s="28"/>
-    </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="I61" s="70"/>
-      <c r="O61" s="28"/>
-      <c r="U61" s="28"/>
-      <c r="AA61" s="28"/>
-      <c r="AG61" s="28"/>
-      <c r="AM61" s="28"/>
-    </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="I62" s="70"/>
-      <c r="O62" s="28"/>
-      <c r="U62" s="28"/>
-      <c r="AA62" s="28"/>
-      <c r="AG62" s="28"/>
-      <c r="AM62" s="28"/>
-    </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A63" s="75"/>
-      <c r="B63" s="75"/>
-      <c r="C63" s="75"/>
-      <c r="D63" s="75"/>
-      <c r="E63" s="75"/>
-      <c r="F63" s="75"/>
-      <c r="G63" s="75"/>
-      <c r="H63" s="75"/>
-      <c r="I63" s="76"/>
-      <c r="J63" s="75"/>
-      <c r="K63" s="75"/>
-      <c r="L63" s="75"/>
-      <c r="M63" s="75"/>
-      <c r="N63" s="75"/>
-      <c r="O63" s="77"/>
-      <c r="P63" s="75"/>
-      <c r="Q63" s="75"/>
-      <c r="R63" s="75"/>
-      <c r="S63" s="75"/>
-      <c r="T63" s="75"/>
-      <c r="U63" s="77"/>
-      <c r="V63" s="75"/>
-      <c r="W63" s="75"/>
-      <c r="X63" s="75"/>
-      <c r="Y63" s="75"/>
-      <c r="Z63" s="75"/>
-      <c r="AA63" s="77"/>
-      <c r="AB63" s="75"/>
-      <c r="AC63" s="75"/>
-      <c r="AD63" s="75"/>
-      <c r="AE63" s="75"/>
-      <c r="AF63" s="75"/>
-      <c r="AG63" s="77"/>
-      <c r="AH63" s="75"/>
-      <c r="AI63" s="75"/>
-      <c r="AJ63" s="75"/>
-      <c r="AK63" s="75"/>
-      <c r="AL63" s="75"/>
-      <c r="AM63" s="77"/>
-    </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="I64" s="70"/>
-      <c r="O64" s="28"/>
-      <c r="U64" s="28"/>
-      <c r="AA64" s="28"/>
-      <c r="AG64" s="28"/>
-      <c r="AM64" s="28"/>
-    </row>
-    <row r="65" spans="9:39" x14ac:dyDescent="0.3">
-      <c r="I65" s="70"/>
-      <c r="O65" s="28"/>
-      <c r="U65" s="28"/>
-      <c r="AA65" s="28"/>
-      <c r="AG65" s="28"/>
-      <c r="AM65" s="28"/>
-    </row>
-    <row r="66" spans="9:39" x14ac:dyDescent="0.3">
-      <c r="I66" s="70"/>
-      <c r="O66" s="28"/>
-      <c r="U66" s="28"/>
-      <c r="AA66" s="28"/>
-      <c r="AG66" s="28"/>
-      <c r="AM66" s="28"/>
-    </row>
-    <row r="67" spans="9:39" x14ac:dyDescent="0.3">
-      <c r="I67" s="70"/>
-      <c r="O67" s="28"/>
-      <c r="U67" s="28"/>
-      <c r="AA67" s="28"/>
-      <c r="AG67" s="28"/>
-      <c r="AM67" s="28"/>
-    </row>
-    <row r="68" spans="9:39" x14ac:dyDescent="0.3">
-      <c r="I68" s="70"/>
-      <c r="O68" s="28"/>
-      <c r="U68" s="28"/>
-      <c r="AA68" s="28"/>
-      <c r="AG68" s="28"/>
-      <c r="AM68" s="28"/>
-    </row>
-    <row r="69" spans="9:39" x14ac:dyDescent="0.3">
-      <c r="I69" s="70"/>
-      <c r="O69" s="28"/>
-      <c r="U69" s="28"/>
-      <c r="AA69" s="28"/>
-      <c r="AG69" s="28"/>
-      <c r="AM69" s="28"/>
-    </row>
-    <row r="70" spans="9:39" x14ac:dyDescent="0.3">
-      <c r="I70" s="70"/>
-      <c r="O70" s="28"/>
-      <c r="U70" s="28"/>
-      <c r="AA70" s="28"/>
-      <c r="AG70" s="28"/>
-      <c r="AM70" s="28"/>
-    </row>
-    <row r="71" spans="9:39" x14ac:dyDescent="0.3">
-      <c r="I71" s="70"/>
-      <c r="O71" s="28"/>
-      <c r="U71" s="28"/>
-      <c r="AA71" s="28"/>
-      <c r="AG71" s="28"/>
-      <c r="AM71" s="28"/>
-    </row>
-    <row r="72" spans="9:39" x14ac:dyDescent="0.3">
-      <c r="I72" s="70"/>
-      <c r="O72" s="28"/>
-      <c r="U72" s="28"/>
-      <c r="AA72" s="28"/>
-      <c r="AG72" s="28"/>
-      <c r="AM72" s="28"/>
-    </row>
-    <row r="73" spans="9:39" x14ac:dyDescent="0.3">
-      <c r="I73" s="70"/>
-      <c r="O73" s="28"/>
-      <c r="U73" s="28"/>
-      <c r="AA73" s="28"/>
-      <c r="AG73" s="28"/>
-      <c r="AM73" s="28"/>
-    </row>
-    <row r="74" spans="9:39" x14ac:dyDescent="0.3">
-      <c r="I74" s="70"/>
-      <c r="O74" s="28"/>
-      <c r="U74" s="28"/>
-      <c r="AA74" s="28"/>
-      <c r="AG74" s="28"/>
-      <c r="AM74" s="28"/>
-    </row>
-    <row r="75" spans="9:39" x14ac:dyDescent="0.3">
-      <c r="I75" s="70"/>
-      <c r="O75" s="28"/>
-      <c r="U75" s="28"/>
-      <c r="AA75" s="28"/>
-      <c r="AG75" s="28"/>
-      <c r="AM75" s="28"/>
-    </row>
-    <row r="76" spans="9:39" x14ac:dyDescent="0.3">
-      <c r="I76" s="70"/>
-      <c r="O76" s="28"/>
-      <c r="U76" s="28"/>
-      <c r="AA76" s="28"/>
-      <c r="AG76" s="28"/>
-      <c r="AM76" s="28"/>
-    </row>
-    <row r="77" spans="9:39" x14ac:dyDescent="0.3">
-      <c r="I77" s="70"/>
-      <c r="O77" s="28"/>
-      <c r="U77" s="28"/>
-      <c r="AA77" s="28"/>
-      <c r="AG77" s="28"/>
-      <c r="AM77" s="28"/>
-    </row>
-    <row r="78" spans="9:39" x14ac:dyDescent="0.3">
-      <c r="I78" s="70"/>
-      <c r="O78" s="28"/>
-      <c r="U78" s="28"/>
-      <c r="AA78" s="28"/>
-      <c r="AG78" s="28"/>
-      <c r="AM78" s="28"/>
-    </row>
-    <row r="79" spans="9:39" x14ac:dyDescent="0.3">
-      <c r="I79" s="70"/>
-      <c r="O79" s="28"/>
-      <c r="U79" s="28"/>
-      <c r="AA79" s="28"/>
-      <c r="AG79" s="28"/>
-      <c r="AM79" s="28"/>
-    </row>
-    <row r="80" spans="9:39" x14ac:dyDescent="0.3">
-      <c r="I80" s="70"/>
-      <c r="M80" s="27"/>
-      <c r="O80" s="28"/>
-      <c r="U80" s="28"/>
-      <c r="AA80" s="28"/>
-      <c r="AG80" s="28"/>
-      <c r="AM80" s="28"/>
-    </row>
-    <row r="81" spans="7:39" x14ac:dyDescent="0.3">
-      <c r="G81" s="27"/>
-      <c r="I81" s="70"/>
-      <c r="O81" s="28"/>
-      <c r="S81" s="27"/>
-      <c r="U81" s="28"/>
-      <c r="Y81" s="27"/>
-      <c r="AA81" s="28"/>
-      <c r="AE81" s="27"/>
-      <c r="AG81" s="28"/>
-      <c r="AM81" s="28"/>
-    </row>
-    <row r="82" spans="7:39" x14ac:dyDescent="0.3">
-      <c r="I82" s="70"/>
-      <c r="O82" s="28"/>
-      <c r="R82" s="27"/>
-      <c r="S82" s="27"/>
-      <c r="U82" s="28"/>
-      <c r="W82" s="27"/>
-      <c r="Y82" s="27"/>
-      <c r="AA82" s="28"/>
-      <c r="AG82" s="28"/>
-      <c r="AM82" s="28"/>
-    </row>
-    <row r="83" spans="7:39" x14ac:dyDescent="0.3">
-      <c r="I83" s="70"/>
-      <c r="O83" s="28"/>
-      <c r="S83" s="27"/>
-      <c r="U83" s="28"/>
-      <c r="AA83" s="28"/>
-      <c r="AG83" s="28"/>
-      <c r="AM83" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="32"/>
+      <c r="AM6" s="27"/>
+    </row>
+    <row r="7" spans="1:88">
+      <c r="A7" s="60"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="48"/>
+      <c r="Y7" s="48"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="50"/>
+      <c r="AD7" s="50"/>
+      <c r="AE7" s="51"/>
+      <c r="AF7" s="50"/>
+      <c r="AG7" s="52"/>
+      <c r="AM7" s="27"/>
+    </row>
+    <row r="8" spans="1:88">
+      <c r="A8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="62"/>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="64"/>
+      <c r="Z8" s="62"/>
+      <c r="AA8" s="66"/>
+      <c r="AB8" s="62"/>
+      <c r="AC8" s="62"/>
+      <c r="AD8" s="64"/>
+      <c r="AE8" s="64"/>
+      <c r="AF8" s="62"/>
+      <c r="AG8" s="67"/>
+      <c r="AM8" s="27"/>
+    </row>
+    <row r="9" spans="1:88">
+      <c r="I9" s="68"/>
+      <c r="O9" s="27"/>
+      <c r="R9" s="26"/>
+      <c r="U9" s="27"/>
+      <c r="X9" s="26"/>
+      <c r="AA9" s="27"/>
+      <c r="AG9" s="27"/>
+      <c r="AK9" s="26"/>
+      <c r="AL9" s="26"/>
+      <c r="AM9" s="27"/>
+    </row>
+    <row r="10" spans="1:88" s="69" customFormat="1">
+      <c r="G10" s="70"/>
+      <c r="I10" s="71"/>
+      <c r="M10" s="70"/>
+      <c r="O10" s="72"/>
+      <c r="S10" s="70"/>
+      <c r="U10" s="72"/>
+      <c r="Y10" s="70"/>
+      <c r="AA10" s="72"/>
+      <c r="AE10" s="70"/>
+      <c r="AG10" s="72"/>
+      <c r="AM10" s="72"/>
+    </row>
+    <row r="11" spans="1:88">
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="72"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="O11" s="27"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="U11" s="27"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="AA11" s="27"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26"/>
+      <c r="AG11" s="27"/>
+      <c r="AM11" s="27"/>
+    </row>
+    <row r="12" spans="1:88">
+      <c r="C12" s="69"/>
+      <c r="G12" s="26"/>
+      <c r="I12" s="68"/>
+      <c r="K12" s="69"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="27"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="27"/>
+      <c r="Y12" s="26"/>
+      <c r="AA12" s="27"/>
+      <c r="AE12" s="26"/>
+      <c r="AG12" s="27"/>
+      <c r="AM12" s="27"/>
+    </row>
+    <row r="13" spans="1:88">
+      <c r="I13" s="68"/>
+      <c r="O13" s="27"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AG13" s="27"/>
+      <c r="AM13" s="27"/>
+    </row>
+    <row r="14" spans="1:88">
+      <c r="C14" s="69"/>
+      <c r="G14" s="26"/>
+      <c r="I14" s="68"/>
+      <c r="M14" s="26"/>
+      <c r="O14" s="27"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="U14" s="27"/>
+      <c r="Y14" s="26"/>
+      <c r="AA14" s="27"/>
+      <c r="AE14" s="26"/>
+      <c r="AG14" s="27"/>
+      <c r="AM14" s="27"/>
+    </row>
+    <row r="15" spans="1:88">
+      <c r="C15" s="69"/>
+      <c r="G15" s="26"/>
+      <c r="I15" s="68"/>
+      <c r="M15" s="26"/>
+      <c r="O15" s="27"/>
+      <c r="S15" s="26"/>
+      <c r="U15" s="27"/>
+      <c r="Y15" s="26"/>
+      <c r="AA15" s="27"/>
+      <c r="AG15" s="27"/>
+      <c r="AM15" s="27"/>
+    </row>
+    <row r="16" spans="1:88">
+      <c r="C16" s="69"/>
+      <c r="G16" s="26"/>
+      <c r="I16" s="68"/>
+      <c r="M16" s="26"/>
+      <c r="O16" s="27"/>
+      <c r="S16" s="26"/>
+      <c r="U16" s="27"/>
+      <c r="Y16" s="26"/>
+      <c r="AA16" s="27"/>
+      <c r="AG16" s="27"/>
+      <c r="AK16" s="26"/>
+      <c r="AM16" s="27"/>
+    </row>
+    <row r="17" spans="6:39">
+      <c r="G17" s="26"/>
+      <c r="I17" s="68"/>
+      <c r="O17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AG17" s="27"/>
+      <c r="AM17" s="27"/>
+    </row>
+    <row r="18" spans="6:39">
+      <c r="G18" s="26"/>
+      <c r="I18" s="68"/>
+      <c r="M18" s="26"/>
+      <c r="O18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AG18" s="27"/>
+      <c r="AM18" s="27"/>
+    </row>
+    <row r="19" spans="6:39">
+      <c r="I19" s="68"/>
+      <c r="O19" s="27"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="U19" s="27"/>
+      <c r="Y19" s="26"/>
+      <c r="AA19" s="27"/>
+      <c r="AG19" s="27"/>
+      <c r="AM19" s="27"/>
+    </row>
+    <row r="20" spans="6:39">
+      <c r="G20" s="26"/>
+      <c r="I20" s="68"/>
+      <c r="M20" s="26"/>
+      <c r="O20" s="27"/>
+      <c r="S20" s="26"/>
+      <c r="U20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AG20" s="27"/>
+      <c r="AM20" s="27"/>
+    </row>
+    <row r="21" spans="6:39">
+      <c r="I21" s="68"/>
+      <c r="O21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AG21" s="27"/>
+      <c r="AM21" s="27"/>
+    </row>
+    <row r="22" spans="6:39">
+      <c r="G22" s="26"/>
+      <c r="I22" s="68"/>
+      <c r="O22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AG22" s="27"/>
+      <c r="AM22" s="27"/>
+    </row>
+    <row r="23" spans="6:39">
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="I23" s="68"/>
+      <c r="L23" s="26"/>
+      <c r="O23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="AA23" s="27"/>
+      <c r="AG23" s="27"/>
+      <c r="AM23" s="27"/>
+    </row>
+    <row r="24" spans="6:39">
+      <c r="I24" s="68"/>
+      <c r="O24" s="27"/>
+      <c r="S24" s="26"/>
+      <c r="U24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AG24" s="27"/>
+      <c r="AM24" s="27"/>
+    </row>
+    <row r="25" spans="6:39">
+      <c r="G25" s="26"/>
+      <c r="I25" s="68"/>
+      <c r="O25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AG25" s="27"/>
+      <c r="AM25" s="27"/>
+    </row>
+    <row r="26" spans="6:39">
+      <c r="I26" s="68"/>
+      <c r="M26" s="26"/>
+      <c r="O26" s="27"/>
+      <c r="S26" s="26"/>
+      <c r="U26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AG26" s="27"/>
+      <c r="AM26" s="27"/>
+    </row>
+    <row r="27" spans="6:39">
+      <c r="I27" s="68"/>
+      <c r="O27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AG27" s="27"/>
+      <c r="AK27" s="26"/>
+      <c r="AM27" s="27"/>
+    </row>
+    <row r="28" spans="6:39">
+      <c r="I28" s="68"/>
+      <c r="M28" s="26"/>
+      <c r="O28" s="27"/>
+      <c r="S28" s="26"/>
+      <c r="U28" s="27"/>
+      <c r="Y28" s="26"/>
+      <c r="AA28" s="27"/>
+      <c r="AG28" s="27"/>
+      <c r="AM28" s="27"/>
+    </row>
+    <row r="29" spans="6:39">
+      <c r="I29" s="68"/>
+      <c r="M29" s="26"/>
+      <c r="O29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="AA29" s="27"/>
+      <c r="AG29" s="27"/>
+      <c r="AM29" s="27"/>
+    </row>
+    <row r="30" spans="6:39">
+      <c r="G30" s="26"/>
+      <c r="I30" s="68"/>
+      <c r="O30" s="27"/>
+      <c r="U30" s="27"/>
+      <c r="AA30" s="27"/>
+      <c r="AG30" s="27"/>
+      <c r="AM30" s="27"/>
+    </row>
+    <row r="31" spans="6:39">
+      <c r="G31" s="26"/>
+      <c r="I31" s="68"/>
+      <c r="M31" s="26"/>
+      <c r="O31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="AA31" s="27"/>
+      <c r="AG31" s="27"/>
+      <c r="AM31" s="27"/>
+    </row>
+    <row r="32" spans="6:39">
+      <c r="I32" s="68"/>
+      <c r="M32" s="26"/>
+      <c r="O32" s="27"/>
+      <c r="U32" s="27"/>
+      <c r="AA32" s="27"/>
+      <c r="AG32" s="27"/>
+      <c r="AM32" s="27"/>
+    </row>
+    <row r="33" spans="7:39">
+      <c r="G33" s="26"/>
+      <c r="I33" s="68"/>
+      <c r="M33" s="26"/>
+      <c r="O33" s="27"/>
+      <c r="S33" s="26"/>
+      <c r="U33" s="27"/>
+      <c r="AA33" s="27"/>
+      <c r="AG33" s="27"/>
+      <c r="AM33" s="27"/>
+    </row>
+    <row r="34" spans="7:39">
+      <c r="I34" s="68"/>
+      <c r="M34" s="26"/>
+      <c r="O34" s="27"/>
+      <c r="U34" s="27"/>
+      <c r="AA34" s="27"/>
+      <c r="AG34" s="27"/>
+      <c r="AM34" s="27"/>
+    </row>
+    <row r="35" spans="7:39">
+      <c r="I35" s="68"/>
+      <c r="O35" s="27"/>
+      <c r="S35" s="26"/>
+      <c r="U35" s="27"/>
+      <c r="AA35" s="27"/>
+      <c r="AG35" s="27"/>
+      <c r="AM35" s="27"/>
+    </row>
+    <row r="36" spans="7:39">
+      <c r="I36" s="68"/>
+      <c r="M36" s="26"/>
+      <c r="O36" s="27"/>
+      <c r="S36" s="26"/>
+      <c r="U36" s="27"/>
+      <c r="AA36" s="27"/>
+      <c r="AG36" s="27"/>
+      <c r="AM36" s="27"/>
+    </row>
+    <row r="37" spans="7:39">
+      <c r="I37" s="68"/>
+      <c r="M37" s="26"/>
+      <c r="O37" s="27"/>
+      <c r="S37" s="26"/>
+      <c r="U37" s="27"/>
+      <c r="AA37" s="27"/>
+      <c r="AG37" s="27"/>
+      <c r="AM37" s="27"/>
+    </row>
+    <row r="38" spans="7:39">
+      <c r="G38" s="26"/>
+      <c r="I38" s="68"/>
+      <c r="M38" s="26"/>
+      <c r="O38" s="27"/>
+      <c r="U38" s="27"/>
+      <c r="AA38" s="27"/>
+      <c r="AG38" s="27"/>
+      <c r="AM38" s="27"/>
+    </row>
+    <row r="39" spans="7:39">
+      <c r="I39" s="68"/>
+      <c r="M39" s="26"/>
+      <c r="O39" s="27"/>
+      <c r="U39" s="27"/>
+      <c r="AA39" s="27"/>
+      <c r="AG39" s="27"/>
+      <c r="AM39" s="27"/>
+    </row>
+    <row r="40" spans="7:39">
+      <c r="I40" s="68"/>
+      <c r="M40" s="26"/>
+      <c r="O40" s="27"/>
+      <c r="S40" s="26"/>
+      <c r="U40" s="27"/>
+      <c r="AA40" s="27"/>
+      <c r="AG40" s="27"/>
+      <c r="AM40" s="27"/>
+    </row>
+    <row r="41" spans="7:39">
+      <c r="I41" s="68"/>
+      <c r="O41" s="27"/>
+      <c r="U41" s="27"/>
+      <c r="AA41" s="27"/>
+      <c r="AG41" s="27"/>
+      <c r="AM41" s="27"/>
+    </row>
+    <row r="42" spans="7:39">
+      <c r="I42" s="68"/>
+      <c r="O42" s="27"/>
+      <c r="U42" s="27"/>
+      <c r="AA42" s="27"/>
+      <c r="AG42" s="27"/>
+      <c r="AM42" s="27"/>
+    </row>
+    <row r="43" spans="7:39">
+      <c r="G43" s="26"/>
+      <c r="I43" s="68"/>
+      <c r="O43" s="27"/>
+      <c r="U43" s="27"/>
+      <c r="AA43" s="27"/>
+      <c r="AE43" s="26"/>
+      <c r="AG43" s="27"/>
+      <c r="AM43" s="27"/>
+    </row>
+    <row r="44" spans="7:39">
+      <c r="I44" s="68"/>
+      <c r="M44" s="26"/>
+      <c r="O44" s="27"/>
+      <c r="S44" s="26"/>
+      <c r="U44" s="27"/>
+      <c r="AA44" s="27"/>
+      <c r="AG44" s="27"/>
+      <c r="AM44" s="27"/>
+    </row>
+    <row r="45" spans="7:39">
+      <c r="I45" s="68"/>
+      <c r="O45" s="27"/>
+      <c r="S45" s="26"/>
+      <c r="U45" s="27"/>
+      <c r="Y45" s="26"/>
+      <c r="AA45" s="27"/>
+      <c r="AG45" s="27"/>
+      <c r="AM45" s="27"/>
+    </row>
+    <row r="46" spans="7:39">
+      <c r="I46" s="68"/>
+      <c r="O46" s="27"/>
+      <c r="U46" s="27"/>
+      <c r="Y46" s="26"/>
+      <c r="AA46" s="27"/>
+      <c r="AG46" s="27"/>
+      <c r="AK46" s="26"/>
+      <c r="AM46" s="27"/>
+    </row>
+    <row r="47" spans="7:39">
+      <c r="I47" s="68"/>
+      <c r="M47" s="26"/>
+      <c r="O47" s="27"/>
+      <c r="U47" s="27"/>
+      <c r="AA47" s="27"/>
+      <c r="AG47" s="27"/>
+      <c r="AM47" s="27"/>
+    </row>
+    <row r="48" spans="7:39">
+      <c r="I48" s="68"/>
+      <c r="O48" s="27"/>
+      <c r="S48" s="26"/>
+      <c r="U48" s="27"/>
+      <c r="AA48" s="27"/>
+      <c r="AG48" s="27"/>
+      <c r="AM48" s="27"/>
+    </row>
+    <row r="49" spans="1:39">
+      <c r="G49" s="26"/>
+      <c r="I49" s="68"/>
+      <c r="O49" s="27"/>
+      <c r="U49" s="27"/>
+      <c r="Y49" s="26"/>
+      <c r="AA49" s="27"/>
+      <c r="AG49" s="27"/>
+      <c r="AM49" s="27"/>
+    </row>
+    <row r="50" spans="1:39">
+      <c r="I50" s="68"/>
+      <c r="M50" s="26"/>
+      <c r="O50" s="27"/>
+      <c r="U50" s="27"/>
+      <c r="AA50" s="27"/>
+      <c r="AG50" s="27"/>
+      <c r="AM50" s="27"/>
+    </row>
+    <row r="51" spans="1:39">
+      <c r="I51" s="68"/>
+      <c r="O51" s="27"/>
+      <c r="U51" s="27"/>
+      <c r="AA51" s="27"/>
+      <c r="AG51" s="27"/>
+      <c r="AM51" s="27"/>
+    </row>
+    <row r="52" spans="1:39">
+      <c r="I52" s="68"/>
+      <c r="O52" s="27"/>
+      <c r="U52" s="27"/>
+      <c r="AA52" s="27"/>
+      <c r="AG52" s="27"/>
+      <c r="AM52" s="27"/>
+    </row>
+    <row r="53" spans="1:39">
+      <c r="I53" s="68"/>
+      <c r="O53" s="27"/>
+      <c r="U53" s="27"/>
+      <c r="AA53" s="27"/>
+      <c r="AG53" s="27"/>
+      <c r="AM53" s="27"/>
+    </row>
+    <row r="54" spans="1:39">
+      <c r="I54" s="68"/>
+      <c r="O54" s="27"/>
+      <c r="U54" s="27"/>
+      <c r="AA54" s="27"/>
+      <c r="AG54" s="27"/>
+      <c r="AM54" s="27"/>
+    </row>
+    <row r="55" spans="1:39">
+      <c r="I55" s="68"/>
+      <c r="O55" s="27"/>
+      <c r="U55" s="27"/>
+      <c r="AA55" s="27"/>
+      <c r="AG55" s="27"/>
+      <c r="AM55" s="27"/>
+    </row>
+    <row r="56" spans="1:39">
+      <c r="I56" s="68"/>
+      <c r="O56" s="27"/>
+      <c r="U56" s="27"/>
+      <c r="AA56" s="27"/>
+      <c r="AG56" s="27"/>
+      <c r="AM56" s="27"/>
+    </row>
+    <row r="57" spans="1:39">
+      <c r="I57" s="68"/>
+      <c r="O57" s="27"/>
+      <c r="U57" s="27"/>
+      <c r="AA57" s="27"/>
+      <c r="AG57" s="27"/>
+      <c r="AM57" s="27"/>
+    </row>
+    <row r="58" spans="1:39">
+      <c r="I58" s="68"/>
+      <c r="O58" s="27"/>
+      <c r="U58" s="27"/>
+      <c r="AA58" s="27"/>
+      <c r="AG58" s="27"/>
+      <c r="AM58" s="27"/>
+    </row>
+    <row r="59" spans="1:39">
+      <c r="I59" s="68"/>
+      <c r="O59" s="27"/>
+      <c r="U59" s="27"/>
+      <c r="AA59" s="27"/>
+      <c r="AG59" s="27"/>
+      <c r="AM59" s="27"/>
+    </row>
+    <row r="60" spans="1:39">
+      <c r="I60" s="68"/>
+      <c r="O60" s="27"/>
+      <c r="U60" s="27"/>
+      <c r="AA60" s="27"/>
+      <c r="AG60" s="27"/>
+      <c r="AM60" s="27"/>
+    </row>
+    <row r="61" spans="1:39">
+      <c r="I61" s="68"/>
+      <c r="O61" s="27"/>
+      <c r="U61" s="27"/>
+      <c r="AA61" s="27"/>
+      <c r="AG61" s="27"/>
+      <c r="AM61" s="27"/>
+    </row>
+    <row r="62" spans="1:39">
+      <c r="I62" s="68"/>
+      <c r="O62" s="27"/>
+      <c r="U62" s="27"/>
+      <c r="AA62" s="27"/>
+      <c r="AG62" s="27"/>
+      <c r="AM62" s="27"/>
+    </row>
+    <row r="63" spans="1:39">
+      <c r="A63" s="73"/>
+      <c r="B63" s="73"/>
+      <c r="C63" s="73"/>
+      <c r="D63" s="73"/>
+      <c r="E63" s="73"/>
+      <c r="F63" s="73"/>
+      <c r="G63" s="73"/>
+      <c r="H63" s="73"/>
+      <c r="I63" s="74"/>
+      <c r="J63" s="73"/>
+      <c r="K63" s="73"/>
+      <c r="L63" s="73"/>
+      <c r="M63" s="73"/>
+      <c r="N63" s="73"/>
+      <c r="O63" s="75"/>
+      <c r="P63" s="73"/>
+      <c r="Q63" s="73"/>
+      <c r="R63" s="73"/>
+      <c r="S63" s="73"/>
+      <c r="T63" s="73"/>
+      <c r="U63" s="75"/>
+      <c r="V63" s="73"/>
+      <c r="W63" s="73"/>
+      <c r="X63" s="73"/>
+      <c r="Y63" s="73"/>
+      <c r="Z63" s="73"/>
+      <c r="AA63" s="75"/>
+      <c r="AB63" s="73"/>
+      <c r="AC63" s="73"/>
+      <c r="AD63" s="73"/>
+      <c r="AE63" s="73"/>
+      <c r="AF63" s="73"/>
+      <c r="AG63" s="75"/>
+      <c r="AH63" s="73"/>
+      <c r="AI63" s="73"/>
+      <c r="AJ63" s="73"/>
+      <c r="AK63" s="73"/>
+      <c r="AL63" s="73"/>
+      <c r="AM63" s="75"/>
+    </row>
+    <row r="64" spans="1:39">
+      <c r="I64" s="68"/>
+      <c r="O64" s="27"/>
+      <c r="U64" s="27"/>
+      <c r="AA64" s="27"/>
+      <c r="AG64" s="27"/>
+      <c r="AM64" s="27"/>
+    </row>
+    <row r="65" spans="9:39">
+      <c r="I65" s="68"/>
+      <c r="O65" s="27"/>
+      <c r="U65" s="27"/>
+      <c r="AA65" s="27"/>
+      <c r="AG65" s="27"/>
+      <c r="AM65" s="27"/>
+    </row>
+    <row r="66" spans="9:39">
+      <c r="I66" s="68"/>
+      <c r="O66" s="27"/>
+      <c r="U66" s="27"/>
+      <c r="AA66" s="27"/>
+      <c r="AG66" s="27"/>
+      <c r="AM66" s="27"/>
+    </row>
+    <row r="67" spans="9:39">
+      <c r="I67" s="68"/>
+      <c r="O67" s="27"/>
+      <c r="U67" s="27"/>
+      <c r="AA67" s="27"/>
+      <c r="AG67" s="27"/>
+      <c r="AM67" s="27"/>
+    </row>
+    <row r="68" spans="9:39">
+      <c r="I68" s="68"/>
+      <c r="O68" s="27"/>
+      <c r="U68" s="27"/>
+      <c r="AA68" s="27"/>
+      <c r="AG68" s="27"/>
+      <c r="AM68" s="27"/>
+    </row>
+    <row r="69" spans="9:39">
+      <c r="I69" s="68"/>
+      <c r="O69" s="27"/>
+      <c r="U69" s="27"/>
+      <c r="AA69" s="27"/>
+      <c r="AG69" s="27"/>
+      <c r="AM69" s="27"/>
+    </row>
+    <row r="70" spans="9:39">
+      <c r="I70" s="68"/>
+      <c r="O70" s="27"/>
+      <c r="U70" s="27"/>
+      <c r="AA70" s="27"/>
+      <c r="AG70" s="27"/>
+      <c r="AM70" s="27"/>
+    </row>
+    <row r="71" spans="9:39">
+      <c r="I71" s="68"/>
+      <c r="O71" s="27"/>
+      <c r="U71" s="27"/>
+      <c r="AA71" s="27"/>
+      <c r="AG71" s="27"/>
+      <c r="AM71" s="27"/>
+    </row>
+    <row r="72" spans="9:39">
+      <c r="I72" s="68"/>
+      <c r="O72" s="27"/>
+      <c r="U72" s="27"/>
+      <c r="AA72" s="27"/>
+      <c r="AG72" s="27"/>
+      <c r="AM72" s="27"/>
+    </row>
+    <row r="73" spans="9:39">
+      <c r="I73" s="68"/>
+      <c r="O73" s="27"/>
+      <c r="U73" s="27"/>
+      <c r="AA73" s="27"/>
+      <c r="AG73" s="27"/>
+      <c r="AM73" s="27"/>
+    </row>
+    <row r="74" spans="9:39">
+      <c r="I74" s="68"/>
+      <c r="O74" s="27"/>
+      <c r="U74" s="27"/>
+      <c r="AA74" s="27"/>
+      <c r="AG74" s="27"/>
+      <c r="AM74" s="27"/>
+    </row>
+    <row r="75" spans="9:39">
+      <c r="I75" s="68"/>
+      <c r="O75" s="27"/>
+      <c r="U75" s="27"/>
+      <c r="AA75" s="27"/>
+      <c r="AG75" s="27"/>
+      <c r="AM75" s="27"/>
+    </row>
+    <row r="76" spans="9:39">
+      <c r="I76" s="68"/>
+      <c r="O76" s="27"/>
+      <c r="U76" s="27"/>
+      <c r="AA76" s="27"/>
+      <c r="AG76" s="27"/>
+      <c r="AM76" s="27"/>
+    </row>
+    <row r="77" spans="9:39">
+      <c r="I77" s="68"/>
+      <c r="O77" s="27"/>
+      <c r="U77" s="27"/>
+      <c r="AA77" s="27"/>
+      <c r="AG77" s="27"/>
+      <c r="AM77" s="27"/>
+    </row>
+    <row r="78" spans="9:39">
+      <c r="I78" s="68"/>
+      <c r="O78" s="27"/>
+      <c r="U78" s="27"/>
+      <c r="AA78" s="27"/>
+      <c r="AG78" s="27"/>
+      <c r="AM78" s="27"/>
+    </row>
+    <row r="79" spans="9:39">
+      <c r="I79" s="68"/>
+      <c r="O79" s="27"/>
+      <c r="U79" s="27"/>
+      <c r="AA79" s="27"/>
+      <c r="AG79" s="27"/>
+      <c r="AM79" s="27"/>
+    </row>
+    <row r="80" spans="9:39">
+      <c r="I80" s="68"/>
+      <c r="M80" s="26"/>
+      <c r="O80" s="27"/>
+      <c r="U80" s="27"/>
+      <c r="AA80" s="27"/>
+      <c r="AG80" s="27"/>
+      <c r="AM80" s="27"/>
+    </row>
+    <row r="81" spans="7:39">
+      <c r="G81" s="26"/>
+      <c r="I81" s="68"/>
+      <c r="O81" s="27"/>
+      <c r="S81" s="26"/>
+      <c r="U81" s="27"/>
+      <c r="Y81" s="26"/>
+      <c r="AA81" s="27"/>
+      <c r="AE81" s="26"/>
+      <c r="AG81" s="27"/>
+      <c r="AM81" s="27"/>
+    </row>
+    <row r="82" spans="7:39">
+      <c r="I82" s="68"/>
+      <c r="O82" s="27"/>
+      <c r="R82" s="26"/>
+      <c r="S82" s="26"/>
+      <c r="U82" s="27"/>
+      <c r="W82" s="26"/>
+      <c r="Y82" s="26"/>
+      <c r="AA82" s="27"/>
+      <c r="AG82" s="27"/>
+      <c r="AM82" s="27"/>
+    </row>
+    <row r="83" spans="7:39">
+      <c r="I83" s="68"/>
+      <c r="O83" s="27"/>
+      <c r="S83" s="26"/>
+      <c r="U83" s="27"/>
+      <c r="AA83" s="27"/>
+      <c r="AG83" s="27"/>
+      <c r="AM83" s="27"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>